--- a/C1.XLSX
+++ b/C1.XLSX
@@ -25,7 +25,7 @@
     <t>l25</t>
   </si>
   <si>
-    <t>l27</t>
+    <t>l27.6</t>
   </si>
 </sst>
 </file>
@@ -370,7 +370,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/C1.XLSX
+++ b/C1.XLSX
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>H</t>
   </si>
@@ -26,6 +26,15 @@
   </si>
   <si>
     <t>l27.6</t>
+  </si>
+  <si>
+    <t>l27</t>
+  </si>
+  <si>
+    <t>l25.0</t>
+  </si>
+  <si>
+    <t>l23.0</t>
   </si>
 </sst>
 </file>
@@ -367,15 +376,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -388,8 +397,17 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>20</v>
       </c>
@@ -402,8 +420,17 @@
       <c r="D2">
         <v>0.57199999999999995</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="F2">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="G2">
+        <v>0.57199999999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>25</v>
       </c>
@@ -416,8 +443,17 @@
       <c r="D3">
         <v>0.48799999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="F3">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="G3">
+        <v>0.48799999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>30</v>
       </c>
@@ -430,8 +466,17 @@
       <c r="D4">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="F4">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="G4">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>35</v>
       </c>
@@ -444,8 +489,17 @@
       <c r="D5">
         <v>0.36699999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>0.317</v>
+      </c>
+      <c r="F5">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="G5">
+        <v>0.36699999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>40</v>
       </c>
@@ -458,8 +512,17 @@
       <c r="D6">
         <v>0.32500000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F6">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="G6">
+        <v>0.32500000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>45</v>
       </c>
@@ -472,8 +535,17 @@
       <c r="D7">
         <v>0.29099999999999998</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>0.25</v>
+      </c>
+      <c r="F7">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="G7">
+        <v>0.29099999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>50</v>
       </c>
@@ -486,8 +558,17 @@
       <c r="D8">
         <v>0.26300000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="F8">
+        <v>0.245</v>
+      </c>
+      <c r="G8">
+        <v>0.26300000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>55</v>
       </c>
@@ -500,8 +581,17 @@
       <c r="D9">
         <v>0.24099999999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="F9">
+        <v>0.223</v>
+      </c>
+      <c r="G9">
+        <v>0.24099999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>60</v>
       </c>
@@ -514,8 +604,17 @@
       <c r="D10">
         <v>0.221</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>0.189</v>
+      </c>
+      <c r="F10">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="G10">
+        <v>0.221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>65</v>
       </c>
@@ -528,8 +627,17 @@
       <c r="D11">
         <v>0.20499999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="F11">
+        <v>0.19</v>
+      </c>
+      <c r="G11">
+        <v>0.20499999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>70</v>
       </c>
@@ -540,6 +648,15 @@
         <v>0.17699999999999999</v>
       </c>
       <c r="D12">
+        <v>0.19</v>
+      </c>
+      <c r="E12">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="F12">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="G12">
         <v>0.19</v>
       </c>
     </row>

--- a/C1.XLSX
+++ b/C1.XLSX
@@ -14,27 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>H</t>
-  </si>
-  <si>
-    <t>l23</t>
-  </si>
-  <si>
-    <t>l25</t>
-  </si>
-  <si>
-    <t>l27.6</t>
-  </si>
-  <si>
-    <t>l27</t>
-  </si>
-  <si>
-    <t>l25.0</t>
-  </si>
-  <si>
-    <t>l23.0</t>
   </si>
 </sst>
 </file>
@@ -376,287 +358,277 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
+      <c r="B1">
+        <v>20</v>
+      </c>
+      <c r="C1">
+        <v>25</v>
+      </c>
+      <c r="D1">
+        <v>30</v>
+      </c>
+      <c r="E1">
+        <v>35</v>
+      </c>
+      <c r="F1">
+        <v>40</v>
+      </c>
+      <c r="G1">
+        <v>45</v>
+      </c>
+      <c r="H1">
+        <v>50</v>
+      </c>
+      <c r="I1">
+        <v>55</v>
+      </c>
+      <c r="J1">
+        <v>60</v>
+      </c>
+      <c r="K1">
+        <v>65</v>
+      </c>
+      <c r="L1">
+        <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>0.51200000000000001</v>
       </c>
       <c r="C2">
-        <v>0.54400000000000004</v>
+        <v>0.42799999999999999</v>
       </c>
       <c r="D2">
-        <v>0.57199999999999995</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="E2">
-        <v>0.51200000000000001</v>
+        <v>0.317</v>
       </c>
       <c r="F2">
-        <v>0.54400000000000004</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G2">
-        <v>0.57199999999999995</v>
+        <v>0.25</v>
+      </c>
+      <c r="H2">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="I2">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="J2">
+        <v>0.189</v>
+      </c>
+      <c r="K2">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="L2">
+        <v>0.16300000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>25</v>
       </c>
       <c r="B3">
-        <v>0.42799999999999999</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="C3">
         <v>0.45800000000000002</v>
       </c>
       <c r="D3">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="E3">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="F3">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="G3">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="H3">
+        <v>0.245</v>
+      </c>
+      <c r="I3">
+        <v>0.223</v>
+      </c>
+      <c r="J3">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="K3">
+        <v>0.19</v>
+      </c>
+      <c r="L3">
+        <v>0.17699999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>27.6</v>
+      </c>
+      <c r="B4">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="C4">
         <v>0.48799999999999999</v>
-      </c>
-      <c r="E3">
-        <v>0.42799999999999999</v>
-      </c>
-      <c r="F3">
-        <v>0.45800000000000002</v>
-      </c>
-      <c r="G3">
-        <v>0.48799999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>30</v>
-      </c>
-      <c r="B4">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="C4">
-        <v>0.39300000000000002</v>
       </c>
       <c r="D4">
         <v>0.42</v>
       </c>
       <c r="E4">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="F4">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="G4">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="H4">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="I4">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="J4">
+        <v>0.221</v>
+      </c>
+      <c r="K4">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="L4">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="C5">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="D5">
         <v>0.36499999999999999</v>
-      </c>
-      <c r="F4">
-        <v>0.39300000000000002</v>
-      </c>
-      <c r="G4">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>35</v>
-      </c>
-      <c r="B5">
-        <v>0.317</v>
-      </c>
-      <c r="C5">
-        <v>0.34200000000000003</v>
-      </c>
-      <c r="D5">
-        <v>0.36699999999999999</v>
       </c>
       <c r="E5">
         <v>0.317</v>
       </c>
       <c r="F5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G5">
+        <v>0.25</v>
+      </c>
+      <c r="H5">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="I5">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="J5">
+        <v>0.189</v>
+      </c>
+      <c r="K5">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="L5">
+        <v>0.16300000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="C6">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="D6">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="E6">
         <v>0.34200000000000003</v>
-      </c>
-      <c r="G5">
-        <v>0.36699999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>40</v>
-      </c>
-      <c r="B6">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="C6">
-        <v>0.30199999999999999</v>
-      </c>
-      <c r="D6">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="E6">
-        <v>0.28000000000000003</v>
       </c>
       <c r="F6">
         <v>0.30199999999999999</v>
       </c>
       <c r="G6">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="H6">
+        <v>0.245</v>
+      </c>
+      <c r="I6">
+        <v>0.223</v>
+      </c>
+      <c r="J6">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="K6">
+        <v>0.19</v>
+      </c>
+      <c r="L6">
+        <v>0.17699999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>27</v>
+      </c>
+      <c r="B7">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="C7">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="D7">
+        <v>0.42</v>
+      </c>
+      <c r="E7">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="F7">
         <v>0.32500000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>45</v>
-      </c>
-      <c r="B7">
-        <v>0.25</v>
-      </c>
-      <c r="C7">
-        <v>0.27100000000000002</v>
-      </c>
-      <c r="D7">
-        <v>0.29099999999999998</v>
-      </c>
-      <c r="E7">
-        <v>0.25</v>
-      </c>
-      <c r="F7">
-        <v>0.27100000000000002</v>
       </c>
       <c r="G7">
         <v>0.29099999999999998</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>50</v>
-      </c>
-      <c r="B8">
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="C8">
-        <v>0.245</v>
-      </c>
-      <c r="D8">
+      <c r="H7">
         <v>0.26300000000000001</v>
       </c>
-      <c r="E8">
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="F8">
-        <v>0.245</v>
-      </c>
-      <c r="G8">
-        <v>0.26300000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>55</v>
-      </c>
-      <c r="B9">
-        <v>0.20599999999999999</v>
-      </c>
-      <c r="C9">
-        <v>0.223</v>
-      </c>
-      <c r="D9">
+      <c r="I7">
         <v>0.24099999999999999</v>
       </c>
-      <c r="E9">
-        <v>0.20599999999999999</v>
-      </c>
-      <c r="F9">
-        <v>0.223</v>
-      </c>
-      <c r="G9">
-        <v>0.24099999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>60</v>
-      </c>
-      <c r="B10">
-        <v>0.189</v>
-      </c>
-      <c r="C10">
+      <c r="J7">
+        <v>0.221</v>
+      </c>
+      <c r="K7">
         <v>0.20499999999999999</v>
       </c>
-      <c r="D10">
-        <v>0.221</v>
-      </c>
-      <c r="E10">
-        <v>0.189</v>
-      </c>
-      <c r="F10">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="G10">
-        <v>0.221</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>65</v>
-      </c>
-      <c r="B11">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="C11">
-        <v>0.19</v>
-      </c>
-      <c r="D11">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="E11">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="F11">
-        <v>0.19</v>
-      </c>
-      <c r="G11">
-        <v>0.20499999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>70</v>
-      </c>
-      <c r="B12">
-        <v>0.16300000000000001</v>
-      </c>
-      <c r="C12">
-        <v>0.17699999999999999</v>
-      </c>
-      <c r="D12">
-        <v>0.19</v>
-      </c>
-      <c r="E12">
-        <v>0.16300000000000001</v>
-      </c>
-      <c r="F12">
-        <v>0.17699999999999999</v>
-      </c>
-      <c r="G12">
+      <c r="L7">
         <v>0.19</v>
       </c>
     </row>
